--- a/biology/Zoologie/Gooloogongia/Gooloogongia.xlsx
+++ b/biology/Zoologie/Gooloogongia/Gooloogongia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gooloongongia loomesi
 Gooloogongia est un genre éteint de sarcoptérygiens de l'ordre des Rhizodontida et de la famille des Rhizodontidae, ayant vécu en Australie au Dévonien supérieur.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été nommé d'après le village de Gooloogong et l'espèce d'après le nom du contremaître responsable de l'excavation en 1993, Bruce Loomes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été nommé d'après le village de Gooloogong et l'espèce d'après le nom du contremaître responsable de l'excavation en 1993, Bruce Loomes.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses fossiles ont été mis au jour au Canowindra, en Australie[2]. 
-Ils sont datés du Dévonien supérieur[2], soit d'il y a environ 370 Ma (millions d'années).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses fossiles ont été mis au jour au Canowindra, en Australie. 
+Ils sont datés du Dévonien supérieur, soit d'il y a environ 370 Ma (millions d'années).
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec 90 centimètres de long, ce rhizodonte primitif[2] est l'un des plus petits de son groupe et de son ordre, en particulier si on le compare à Rhizodus, long de 7 mètres.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec 90 centimètres de long, ce rhizodonte primitif est l'un des plus petits de son groupe et de son ordre, en particulier si on le compare à Rhizodus, long de 7 mètres.
 </t>
         </is>
       </c>
